--- a/Code/Results/Cases/Case_0_119/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_119/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9816942467611492</v>
+        <v>1.023264501399539</v>
       </c>
       <c r="D2">
-        <v>0.9910666289214292</v>
+        <v>1.024894917242775</v>
       </c>
       <c r="E2">
-        <v>0.9905949852023943</v>
+        <v>1.023894699122305</v>
       </c>
       <c r="F2">
-        <v>0.9575504609676415</v>
+        <v>1.021726742568586</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040027850455319</v>
+        <v>1.029585543477908</v>
       </c>
       <c r="J2">
-        <v>1.004436613952841</v>
+        <v>1.028445695229218</v>
       </c>
       <c r="K2">
-        <v>1.00265183894847</v>
+        <v>1.02772207931628</v>
       </c>
       <c r="L2">
-        <v>1.002186920736241</v>
+        <v>1.026724795664891</v>
       </c>
       <c r="M2">
-        <v>0.9696346710200595</v>
+        <v>1.024563220987268</v>
       </c>
       <c r="N2">
-        <v>1.005287407055483</v>
+        <v>1.013494321952103</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9881127438493631</v>
+        <v>1.024515217912774</v>
       </c>
       <c r="D3">
-        <v>0.9964679694773515</v>
+        <v>1.025991700188154</v>
       </c>
       <c r="E3">
-        <v>0.9958275716457056</v>
+        <v>1.024963262948683</v>
       </c>
       <c r="F3">
-        <v>0.9668434586519019</v>
+        <v>1.023619608069187</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041874133660482</v>
+        <v>1.029822798988809</v>
       </c>
       <c r="J3">
-        <v>1.008932797950709</v>
+        <v>1.029333254455474</v>
       </c>
       <c r="K3">
-        <v>1.007146243675175</v>
+        <v>1.02862526326964</v>
       </c>
       <c r="L3">
-        <v>1.006514119330828</v>
+        <v>1.02759962297843</v>
       </c>
       <c r="M3">
-        <v>0.9779189302223341</v>
+        <v>1.026259631484754</v>
       </c>
       <c r="N3">
-        <v>1.00680185030168</v>
+        <v>1.013790809329986</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9921398177339947</v>
+        <v>1.025322858030693</v>
       </c>
       <c r="D4">
-        <v>0.9998620134750168</v>
+        <v>1.026700174599818</v>
       </c>
       <c r="E4">
-        <v>0.9991172115407739</v>
+        <v>1.025653643112468</v>
       </c>
       <c r="F4">
-        <v>0.9726606309064677</v>
+        <v>1.024842413008299</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043012918520843</v>
+        <v>1.029973572292023</v>
       </c>
       <c r="J4">
-        <v>1.011746747529339</v>
+        <v>1.029905464905022</v>
       </c>
       <c r="K4">
-        <v>1.009962104157849</v>
+        <v>1.0292078873609</v>
       </c>
       <c r="L4">
-        <v>1.009226302731338</v>
+        <v>1.028164057382676</v>
       </c>
       <c r="M4">
-        <v>0.9831006152475517</v>
+        <v>1.027354925478569</v>
       </c>
       <c r="N4">
-        <v>1.007749433332862</v>
+        <v>1.013981864607071</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9938042299603508</v>
+        <v>1.025661998382019</v>
       </c>
       <c r="D5">
-        <v>1.001265963390312</v>
+        <v>1.026997729594704</v>
       </c>
       <c r="E5">
-        <v>1.000478354892953</v>
+        <v>1.02594363062108</v>
       </c>
       <c r="F5">
-        <v>0.9750622529172385</v>
+        <v>1.025356013519523</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04347880842561</v>
+        <v>1.030036300843509</v>
       </c>
       <c r="J5">
-        <v>1.012908052326796</v>
+        <v>1.030145523212541</v>
       </c>
       <c r="K5">
-        <v>1.011124916036145</v>
+        <v>1.029452396052058</v>
       </c>
       <c r="L5">
-        <v>1.010346554662137</v>
+        <v>1.028400956970106</v>
       </c>
       <c r="M5">
-        <v>0.9852388485145338</v>
+        <v>1.027814825207656</v>
       </c>
       <c r="N5">
-        <v>1.008140430957382</v>
+        <v>1.014061995848141</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9940820614060768</v>
+        <v>1.025718918727311</v>
       </c>
       <c r="D6">
-        <v>1.001500384439033</v>
+        <v>1.027047673630082</v>
       </c>
       <c r="E6">
-        <v>1.000705650452612</v>
+        <v>1.025992306341253</v>
       </c>
       <c r="F6">
-        <v>0.9754630026486494</v>
+        <v>1.025442222327876</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043556293921723</v>
+        <v>1.030046794773554</v>
       </c>
       <c r="J6">
-        <v>1.013101800931357</v>
+        <v>1.030185800906097</v>
       </c>
       <c r="K6">
-        <v>1.011318958157397</v>
+        <v>1.029493425231196</v>
       </c>
       <c r="L6">
-        <v>1.010533509424091</v>
+        <v>1.028440710760087</v>
       </c>
       <c r="M6">
-        <v>0.9855955855326877</v>
+        <v>1.027892011794285</v>
       </c>
       <c r="N6">
-        <v>1.008205659694777</v>
+        <v>1.014075439222429</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9921621679058952</v>
+        <v>1.025327391172882</v>
       </c>
       <c r="D7">
-        <v>0.9998808615290372</v>
+        <v>1.026704151669813</v>
       </c>
       <c r="E7">
-        <v>0.9991354834262409</v>
+        <v>1.025657518911102</v>
       </c>
       <c r="F7">
-        <v>0.9726928902979751</v>
+        <v>1.02484927758068</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043019193617999</v>
+        <v>1.029974413052513</v>
       </c>
       <c r="J7">
-        <v>1.011762348673597</v>
+        <v>1.029908674531949</v>
       </c>
       <c r="K7">
-        <v>1.009977722711129</v>
+        <v>1.029211156169415</v>
       </c>
       <c r="L7">
-        <v>1.009241348634901</v>
+        <v>1.028167224369545</v>
       </c>
       <c r="M7">
-        <v>0.9831293408546667</v>
+        <v>1.027361072874294</v>
       </c>
       <c r="N7">
-        <v>1.007754686326616</v>
+        <v>1.013982936063471</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9838905463292952</v>
+        <v>1.023687533134421</v>
       </c>
       <c r="D8">
-        <v>0.9929137468021535</v>
+        <v>1.025265834578697</v>
       </c>
       <c r="E8">
-        <v>0.9923840405630651</v>
+        <v>1.024256045266322</v>
       </c>
       <c r="F8">
-        <v>0.9607335677805708</v>
+        <v>1.022366868735116</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040663711827572</v>
+        <v>1.029666294495696</v>
       </c>
       <c r="J8">
-        <v>1.00597659832608</v>
+        <v>1.028746087033459</v>
       </c>
       <c r="K8">
-        <v>1.004190569258665</v>
+        <v>1.028027688661279</v>
       </c>
       <c r="L8">
-        <v>1.003668172803551</v>
+        <v>1.027020788708765</v>
       </c>
       <c r="M8">
-        <v>0.9724730751667953</v>
+        <v>1.025137034422796</v>
       </c>
       <c r="N8">
-        <v>1.005806161781984</v>
+        <v>1.013594685929047</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9682676407645343</v>
+        <v>1.02078496913178</v>
       </c>
       <c r="D9">
-        <v>0.9797998766545265</v>
+        <v>1.022721838241662</v>
       </c>
       <c r="E9">
-        <v>0.9796900380968834</v>
+        <v>1.021778250528735</v>
       </c>
       <c r="F9">
-        <v>0.9380055496329767</v>
+        <v>1.017976580469046</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03605880129984</v>
+        <v>1.02910226330172</v>
       </c>
       <c r="J9">
-        <v>0.9949929558246062</v>
+        <v>1.02668120965962</v>
       </c>
       <c r="K9">
-        <v>0.9932294155322452</v>
+        <v>1.025928348325299</v>
       </c>
       <c r="L9">
-        <v>0.9931214554930846</v>
+        <v>1.024987930290397</v>
       </c>
       <c r="M9">
-        <v>0.9521914594110443</v>
+        <v>1.021199096121808</v>
       </c>
       <c r="N9">
-        <v>1.002105632816862</v>
+        <v>1.012904421137528</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9570192514857094</v>
+        <v>1.018840906430333</v>
       </c>
       <c r="D10">
-        <v>0.9703939025464028</v>
+        <v>1.021019208352412</v>
       </c>
       <c r="E10">
-        <v>0.9705957704391237</v>
+        <v>1.020120631558</v>
       </c>
       <c r="F10">
-        <v>0.9214941715175067</v>
+        <v>1.015038135576485</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032641738945036</v>
+        <v>1.028711993065817</v>
       </c>
       <c r="J10">
-        <v>0.9870484017276586</v>
+        <v>1.025293460049166</v>
       </c>
       <c r="K10">
-        <v>0.9853191016709203</v>
+        <v>1.024519199521324</v>
       </c>
       <c r="L10">
-        <v>0.985517028227662</v>
+        <v>1.023623941454287</v>
       </c>
       <c r="M10">
-        <v>0.9374419419917208</v>
+        <v>1.018560339152245</v>
       </c>
       <c r="N10">
-        <v>0.999428728291034</v>
+        <v>1.012440054604932</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9519167124228253</v>
+        <v>1.017996891673836</v>
       </c>
       <c r="D11">
-        <v>0.9661369456570985</v>
+        <v>1.020280321616956</v>
       </c>
       <c r="E11">
-        <v>0.9664826763683928</v>
+        <v>1.019401446711802</v>
       </c>
       <c r="F11">
-        <v>0.9139547479990943</v>
+        <v>1.0137628181422</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031068691742226</v>
+        <v>1.028539605060288</v>
       </c>
       <c r="J11">
-        <v>0.9834362571962962</v>
+        <v>1.024689846586931</v>
       </c>
       <c r="K11">
-        <v>0.9817270287266937</v>
+        <v>1.023906695924337</v>
       </c>
       <c r="L11">
-        <v>0.9820656253369058</v>
+        <v>1.023031194638647</v>
       </c>
       <c r="M11">
-        <v>0.9307047785719686</v>
+        <v>1.017414364801076</v>
       </c>
       <c r="N11">
-        <v>0.9982117314143213</v>
+        <v>1.012237967560814</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9499831355973291</v>
+        <v>1.017683046499482</v>
       </c>
       <c r="D12">
-        <v>0.9645253926282649</v>
+        <v>1.020005615320948</v>
       </c>
       <c r="E12">
-        <v>0.9649260325575927</v>
+        <v>1.019134090733851</v>
       </c>
       <c r="F12">
-        <v>0.911088800928192</v>
+        <v>1.013288648566199</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030469245034831</v>
+        <v>1.028475060337174</v>
       </c>
       <c r="J12">
-        <v>0.9820662345183645</v>
+        <v>1.024465225897287</v>
       </c>
       <c r="K12">
-        <v>0.9803653196570852</v>
+        <v>1.023678829699267</v>
       </c>
       <c r="L12">
-        <v>0.9807575230712642</v>
+        <v>1.022810697614525</v>
       </c>
       <c r="M12">
-        <v>0.9281436027196969</v>
+        <v>1.01698817709538</v>
       </c>
       <c r="N12">
-        <v>0.9977501789739718</v>
+        <v>1.012162749657158</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9503996864634366</v>
+        <v>1.017750382869942</v>
       </c>
       <c r="D13">
-        <v>0.9648724958051439</v>
+        <v>1.020064552186347</v>
       </c>
       <c r="E13">
-        <v>0.9652612884846876</v>
+        <v>1.019191449470488</v>
       </c>
       <c r="F13">
-        <v>0.9117066421589195</v>
+        <v>1.01339038062758</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0305985333912</v>
+        <v>1.028488928600426</v>
       </c>
       <c r="J13">
-        <v>0.982361433564872</v>
+        <v>1.024513426509368</v>
       </c>
       <c r="K13">
-        <v>0.9806586953177318</v>
+        <v>1.023727723922842</v>
       </c>
       <c r="L13">
-        <v>0.9810393364000063</v>
+        <v>1.022858009727982</v>
       </c>
       <c r="M13">
-        <v>0.9286957473103027</v>
+        <v>1.017079619655879</v>
       </c>
       <c r="N13">
-        <v>0.9978496279949418</v>
+        <v>1.012178891136602</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9517576845595992</v>
+        <v>1.017970956118453</v>
       </c>
       <c r="D14">
-        <v>0.9660043697121035</v>
+        <v>1.020257619455287</v>
       </c>
       <c r="E14">
-        <v>0.9663546083420809</v>
+        <v>1.019379351471764</v>
       </c>
       <c r="F14">
-        <v>0.9137192274235695</v>
+        <v>1.013723632614848</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031019457270428</v>
+        <v>1.028534280230079</v>
       </c>
       <c r="J14">
-        <v>0.9833236037235269</v>
+        <v>1.024671287798816</v>
       </c>
       <c r="K14">
-        <v>0.9816150445058049</v>
+        <v>1.023887867702379</v>
       </c>
       <c r="L14">
-        <v>0.9819580438508858</v>
+        <v>1.023012974930248</v>
       </c>
       <c r="M14">
-        <v>0.9304943067094102</v>
+        <v>1.017379146722815</v>
       </c>
       <c r="N14">
-        <v>0.9981737783642695</v>
+        <v>1.012231753171459</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.952589210461976</v>
+        <v>1.018106813257575</v>
       </c>
       <c r="D15">
-        <v>0.9666976492067383</v>
+        <v>1.020376541180415</v>
       </c>
       <c r="E15">
-        <v>0.9670243329212059</v>
+        <v>1.01949509497631</v>
       </c>
       <c r="F15">
-        <v>0.9149503467103128</v>
+        <v>1.013928898726074</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031276759347294</v>
+        <v>1.028562154954595</v>
       </c>
       <c r="J15">
-        <v>0.9839125974218235</v>
+        <v>1.024768496640064</v>
       </c>
       <c r="K15">
-        <v>0.9822005677215253</v>
+        <v>1.023986490374308</v>
       </c>
       <c r="L15">
-        <v>0.9825205583190908</v>
+        <v>1.023108410979773</v>
       </c>
       <c r="M15">
-        <v>0.931594483917476</v>
+        <v>1.017563625646734</v>
       </c>
       <c r="N15">
-        <v>0.9983722122805443</v>
+        <v>1.012264302792218</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9573527227508951</v>
+        <v>1.018896873519813</v>
       </c>
       <c r="D16">
-        <v>0.9706723244841136</v>
+        <v>1.021068210925118</v>
       </c>
       <c r="E16">
-        <v>0.9708648431843983</v>
+        <v>1.020168331072939</v>
       </c>
       <c r="F16">
-        <v>0.9219857605535057</v>
+        <v>1.015122710608704</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032744077187319</v>
+        <v>1.02872336215611</v>
       </c>
       <c r="J16">
-        <v>0.9872843003171868</v>
+        <v>1.025333462407118</v>
       </c>
       <c r="K16">
-        <v>0.9855537844056043</v>
+        <v>1.024559799823119</v>
       </c>
       <c r="L16">
-        <v>0.9857425582293743</v>
+        <v>1.023663234847182</v>
       </c>
       <c r="M16">
-        <v>0.9378811871860976</v>
+        <v>1.018636321331301</v>
       </c>
       <c r="N16">
-        <v>0.9995082104087455</v>
+        <v>1.012453444976619</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9602763894902873</v>
+        <v>1.019391857735051</v>
       </c>
       <c r="D17">
-        <v>0.973114473113339</v>
+        <v>1.021501635394094</v>
       </c>
       <c r="E17">
-        <v>0.9732253041902302</v>
+        <v>1.020590249554736</v>
       </c>
       <c r="F17">
-        <v>0.9262899791995577</v>
+        <v>1.015870755503977</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033638736306645</v>
+        <v>1.02882357222444</v>
       </c>
       <c r="J17">
-        <v>0.989351578857249</v>
+        <v>1.025687121921665</v>
       </c>
       <c r="K17">
-        <v>0.9876109172651113</v>
+        <v>1.024918793868426</v>
       </c>
       <c r="L17">
-        <v>0.9877196625754734</v>
+        <v>1.024010687705817</v>
       </c>
       <c r="M17">
-        <v>0.9417268608043988</v>
+        <v>1.019308281016089</v>
       </c>
       <c r="N17">
-        <v>1.000204759774662</v>
+        <v>1.012571816505837</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.961959594039321</v>
+        <v>1.019680359635778</v>
       </c>
       <c r="D18">
-        <v>0.9745213723652905</v>
+        <v>1.02175428696971</v>
       </c>
       <c r="E18">
-        <v>0.9745854041532732</v>
+        <v>1.020836210302142</v>
       </c>
       <c r="F18">
-        <v>0.928763458917971</v>
+        <v>1.016306793789644</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034151643273517</v>
+        <v>1.028881695272093</v>
       </c>
       <c r="J18">
-        <v>0.9905409656021925</v>
+        <v>1.025893144510108</v>
       </c>
       <c r="K18">
-        <v>0.9887948869968932</v>
+        <v>1.025127964250335</v>
       </c>
       <c r="L18">
-        <v>0.9888577370018722</v>
+        <v>1.024213145801276</v>
       </c>
       <c r="M18">
-        <v>0.9439366112984424</v>
+        <v>1.019699899079208</v>
       </c>
       <c r="N18">
-        <v>1.000605521153503</v>
+        <v>1.012640762955883</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9625298674566406</v>
+        <v>1.019778695224473</v>
       </c>
       <c r="D19">
-        <v>0.9749981844045423</v>
+        <v>1.02184040804759</v>
       </c>
       <c r="E19">
-        <v>0.975046398821502</v>
+        <v>1.020920053434108</v>
       </c>
       <c r="F19">
-        <v>0.9296007506462711</v>
+        <v>1.016455423961593</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034325047345684</v>
+        <v>1.028901458177205</v>
       </c>
       <c r="J19">
-        <v>0.9909437992370763</v>
+        <v>1.025963348759171</v>
       </c>
       <c r="K19">
-        <v>0.9891959565714395</v>
+        <v>1.025199247958927</v>
       </c>
       <c r="L19">
-        <v>0.9892432870568498</v>
+        <v>1.024282144091747</v>
       </c>
       <c r="M19">
-        <v>0.9446845874616062</v>
+        <v>1.019833376094849</v>
       </c>
       <c r="N19">
-        <v>1.000741256184978</v>
+        <v>1.012664255395057</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9599650189766269</v>
+        <v>1.01933877279916</v>
       </c>
       <c r="D20">
-        <v>0.9728542885686368</v>
+        <v>1.021455149387311</v>
       </c>
       <c r="E20">
-        <v>0.9729737953513675</v>
+        <v>1.020544995916968</v>
       </c>
       <c r="F20">
-        <v>0.9258320607771848</v>
+        <v>1.015790526827016</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033543679301469</v>
+        <v>1.028812854549187</v>
       </c>
       <c r="J20">
-        <v>0.9891314946426569</v>
+        <v>1.025649204637655</v>
       </c>
       <c r="K20">
-        <v>0.9873918693177363</v>
+        <v>1.024880300488655</v>
       </c>
       <c r="L20">
-        <v>0.987509119024402</v>
+        <v>1.023973430567931</v>
       </c>
       <c r="M20">
-        <v>0.9413177481207156</v>
+        <v>1.019236219790713</v>
       </c>
       <c r="N20">
-        <v>1.000130603484074</v>
+        <v>1.012559126474052</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9513588743074085</v>
+        <v>1.017906012247366</v>
       </c>
       <c r="D21">
-        <v>0.9656719216838584</v>
+        <v>1.02020077292186</v>
       </c>
       <c r="E21">
-        <v>0.9660334716820916</v>
+        <v>1.019324025090514</v>
       </c>
       <c r="F21">
-        <v>0.9131284396044879</v>
+        <v>1.013625511039302</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03089593352347</v>
+        <v>1.028520939455896</v>
       </c>
       <c r="J21">
-        <v>0.9830410716564277</v>
+        <v>1.024624812989645</v>
       </c>
       <c r="K21">
-        <v>0.9813342022579991</v>
+        <v>1.023840719191246</v>
       </c>
       <c r="L21">
-        <v>0.9816882476697281</v>
+        <v>1.022967350532685</v>
       </c>
       <c r="M21">
-        <v>0.9299663494161453</v>
+        <v>1.017290957990563</v>
       </c>
       <c r="N21">
-        <v>0.9980785936617712</v>
+        <v>1.012216190877266</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9457243708066072</v>
+        <v>1.017003205408162</v>
       </c>
       <c r="D22">
-        <v>0.9609789834164023</v>
+        <v>1.019410642731504</v>
       </c>
       <c r="E22">
-        <v>0.9615013167999334</v>
+        <v>1.018555084579662</v>
       </c>
       <c r="F22">
-        <v>0.9047580776422751</v>
+        <v>1.012261610575769</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029142881541168</v>
+        <v>1.028334436953043</v>
       </c>
       <c r="J22">
-        <v>0.9790464846760919</v>
+        <v>1.02397835247459</v>
       </c>
       <c r="K22">
-        <v>0.9773652191284031</v>
+        <v>1.023185036232645</v>
       </c>
       <c r="L22">
-        <v>0.9778760651327267</v>
+        <v>1.022332908631289</v>
       </c>
       <c r="M22">
-        <v>0.9224859361991791</v>
+        <v>1.016064868271814</v>
       </c>
       <c r="N22">
-        <v>0.9967329240297952</v>
+        <v>1.011999683167334</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9487337900681463</v>
+        <v>1.01748198966302</v>
       </c>
       <c r="D23">
-        <v>0.963484582710097</v>
+        <v>1.019829645181557</v>
       </c>
       <c r="E23">
-        <v>0.963920815245096</v>
+        <v>1.018962836216676</v>
       </c>
       <c r="F23">
-        <v>0.9092342934560493</v>
+        <v>1.012984898563937</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030080992543784</v>
+        <v>1.028433586933674</v>
       </c>
       <c r="J23">
-        <v>0.9811806775916473</v>
+        <v>1.024321281103696</v>
       </c>
       <c r="K23">
-        <v>0.9794853374807747</v>
+        <v>1.023532822709684</v>
       </c>
       <c r="L23">
-        <v>0.9799122646034475</v>
+        <v>1.022669417906964</v>
       </c>
       <c r="M23">
-        <v>0.9264862745673815</v>
+        <v>1.016715133454914</v>
       </c>
       <c r="N23">
-        <v>0.9974518516588363</v>
+        <v>1.012114542929812</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9601057820160316</v>
+        <v>1.019362760257442</v>
       </c>
       <c r="D24">
-        <v>0.9729719088482984</v>
+        <v>1.021476154899363</v>
       </c>
       <c r="E24">
-        <v>0.9730874928433744</v>
+        <v>1.02056544451145</v>
       </c>
       <c r="F24">
-        <v>0.9260390885387698</v>
+        <v>1.015826779587472</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033586658992728</v>
+        <v>1.028817698418006</v>
       </c>
       <c r="J24">
-        <v>0.989230991793099</v>
+        <v>1.025666338632306</v>
       </c>
       <c r="K24">
-        <v>0.9874908966812358</v>
+        <v>1.024897694684196</v>
       </c>
       <c r="L24">
-        <v>0.9876043012035007</v>
+        <v>1.023990266098775</v>
       </c>
       <c r="M24">
-        <v>0.9415027111989969</v>
+        <v>1.019268782158249</v>
       </c>
       <c r="N24">
-        <v>1.000164128531095</v>
+        <v>1.012564860854818</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9724429696895127</v>
+        <v>1.0215369169012</v>
       </c>
       <c r="D25">
-        <v>0.9832989327240821</v>
+        <v>1.023380672994001</v>
       </c>
       <c r="E25">
-        <v>0.983075351598933</v>
+        <v>1.022419817328633</v>
       </c>
       <c r="F25">
-        <v>0.9441006948680961</v>
+        <v>1.019113554465251</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037307095926625</v>
+        <v>1.029250585069787</v>
       </c>
       <c r="J25">
-        <v>0.9979347089375504</v>
+        <v>1.027216980062609</v>
       </c>
       <c r="K25">
-        <v>0.9961621647904473</v>
+        <v>1.026472751124795</v>
       </c>
       <c r="L25">
-        <v>0.9959422085595424</v>
+        <v>1.025514999109351</v>
       </c>
       <c r="M25">
-        <v>0.9576335373934225</v>
+        <v>1.022219464762839</v>
       </c>
       <c r="N25">
-        <v>1.003096847955092</v>
+        <v>1.013083603989592</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_119/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_119/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023264501399539</v>
+        <v>0.9816942467611489</v>
       </c>
       <c r="D2">
-        <v>1.024894917242775</v>
+        <v>0.9910666289214287</v>
       </c>
       <c r="E2">
-        <v>1.023894699122305</v>
+        <v>0.9905949852023938</v>
       </c>
       <c r="F2">
-        <v>1.021726742568586</v>
+        <v>0.957550460967641</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029585543477908</v>
+        <v>1.040027850455319</v>
       </c>
       <c r="J2">
-        <v>1.028445695229218</v>
+        <v>1.004436613952841</v>
       </c>
       <c r="K2">
-        <v>1.02772207931628</v>
+        <v>1.00265183894847</v>
       </c>
       <c r="L2">
-        <v>1.026724795664891</v>
+        <v>1.00218692073624</v>
       </c>
       <c r="M2">
-        <v>1.024563220987268</v>
+        <v>0.9696346710200587</v>
       </c>
       <c r="N2">
-        <v>1.013494321952103</v>
+        <v>1.005287407055483</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024515217912774</v>
+        <v>0.9881127438493625</v>
       </c>
       <c r="D3">
-        <v>1.025991700188154</v>
+        <v>0.9964679694773508</v>
       </c>
       <c r="E3">
-        <v>1.024963262948683</v>
+        <v>0.995827571645705</v>
       </c>
       <c r="F3">
-        <v>1.023619608069187</v>
+        <v>0.9668434586519007</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029822798988809</v>
+        <v>1.041874133660482</v>
       </c>
       <c r="J3">
-        <v>1.029333254455474</v>
+        <v>1.008932797950709</v>
       </c>
       <c r="K3">
-        <v>1.02862526326964</v>
+        <v>1.007146243675175</v>
       </c>
       <c r="L3">
-        <v>1.02759962297843</v>
+        <v>1.006514119330828</v>
       </c>
       <c r="M3">
-        <v>1.026259631484754</v>
+        <v>0.977918930222333</v>
       </c>
       <c r="N3">
-        <v>1.013790809329986</v>
+        <v>1.00680185030168</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025322858030693</v>
+        <v>0.9921398177339942</v>
       </c>
       <c r="D4">
-        <v>1.026700174599818</v>
+        <v>0.9998620134750161</v>
       </c>
       <c r="E4">
-        <v>1.025653643112468</v>
+        <v>0.9991172115407734</v>
       </c>
       <c r="F4">
-        <v>1.024842413008299</v>
+        <v>0.9726606309064668</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029973572292023</v>
+        <v>1.043012918520843</v>
       </c>
       <c r="J4">
-        <v>1.029905464905022</v>
+        <v>1.011746747529338</v>
       </c>
       <c r="K4">
-        <v>1.0292078873609</v>
+        <v>1.009962104157848</v>
       </c>
       <c r="L4">
-        <v>1.028164057382676</v>
+        <v>1.009226302731337</v>
       </c>
       <c r="M4">
-        <v>1.027354925478569</v>
+        <v>0.9831006152475508</v>
       </c>
       <c r="N4">
-        <v>1.013981864607071</v>
+        <v>1.007749433332862</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025661998382019</v>
+        <v>0.9938042299603497</v>
       </c>
       <c r="D5">
-        <v>1.026997729594704</v>
+        <v>1.001265963390312</v>
       </c>
       <c r="E5">
-        <v>1.02594363062108</v>
+        <v>1.000478354892952</v>
       </c>
       <c r="F5">
-        <v>1.025356013519523</v>
+        <v>0.9750622529172376</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030036300843509</v>
+        <v>1.04347880842561</v>
       </c>
       <c r="J5">
-        <v>1.030145523212541</v>
+        <v>1.012908052326795</v>
       </c>
       <c r="K5">
-        <v>1.029452396052058</v>
+        <v>1.011124916036144</v>
       </c>
       <c r="L5">
-        <v>1.028400956970106</v>
+        <v>1.010346554662136</v>
       </c>
       <c r="M5">
-        <v>1.027814825207656</v>
+        <v>0.9852388485145329</v>
       </c>
       <c r="N5">
-        <v>1.014061995848141</v>
+        <v>1.008140430957382</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025718918727311</v>
+        <v>0.9940820614060757</v>
       </c>
       <c r="D6">
-        <v>1.027047673630082</v>
+        <v>1.001500384439032</v>
       </c>
       <c r="E6">
-        <v>1.025992306341253</v>
+        <v>1.000705650452611</v>
       </c>
       <c r="F6">
-        <v>1.025442222327876</v>
+        <v>0.9754630026486479</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030046794773554</v>
+        <v>1.043556293921723</v>
       </c>
       <c r="J6">
-        <v>1.030185800906097</v>
+        <v>1.013101800931356</v>
       </c>
       <c r="K6">
-        <v>1.029493425231196</v>
+        <v>1.011318958157396</v>
       </c>
       <c r="L6">
-        <v>1.028440710760087</v>
+        <v>1.01053350942409</v>
       </c>
       <c r="M6">
-        <v>1.027892011794285</v>
+        <v>0.9855955855326863</v>
       </c>
       <c r="N6">
-        <v>1.014075439222429</v>
+        <v>1.008205659694777</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025327391172882</v>
+        <v>0.9921621679058952</v>
       </c>
       <c r="D7">
-        <v>1.026704151669813</v>
+        <v>0.9998808615290372</v>
       </c>
       <c r="E7">
-        <v>1.025657518911102</v>
+        <v>0.9991354834262407</v>
       </c>
       <c r="F7">
-        <v>1.02484927758068</v>
+        <v>0.9726928902979755</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029974413052513</v>
+        <v>1.043019193617999</v>
       </c>
       <c r="J7">
-        <v>1.029908674531949</v>
+        <v>1.011762348673597</v>
       </c>
       <c r="K7">
-        <v>1.029211156169415</v>
+        <v>1.009977722711129</v>
       </c>
       <c r="L7">
-        <v>1.028167224369545</v>
+        <v>1.009241348634901</v>
       </c>
       <c r="M7">
-        <v>1.027361072874294</v>
+        <v>0.9831293408546669</v>
       </c>
       <c r="N7">
-        <v>1.013982936063471</v>
+        <v>1.007754686326616</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023687533134421</v>
+        <v>0.9838905463292946</v>
       </c>
       <c r="D8">
-        <v>1.025265834578697</v>
+        <v>0.9929137468021532</v>
       </c>
       <c r="E8">
-        <v>1.024256045266322</v>
+        <v>0.9923840405630648</v>
       </c>
       <c r="F8">
-        <v>1.022366868735116</v>
+        <v>0.9607335677805708</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029666294495696</v>
+        <v>1.040663711827572</v>
       </c>
       <c r="J8">
-        <v>1.028746087033459</v>
+        <v>1.00597659832608</v>
       </c>
       <c r="K8">
-        <v>1.028027688661279</v>
+        <v>1.004190569258664</v>
       </c>
       <c r="L8">
-        <v>1.027020788708765</v>
+        <v>1.003668172803551</v>
       </c>
       <c r="M8">
-        <v>1.025137034422796</v>
+        <v>0.9724730751667952</v>
       </c>
       <c r="N8">
-        <v>1.013594685929047</v>
+        <v>1.005806161781984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02078496913178</v>
+        <v>0.968267640764534</v>
       </c>
       <c r="D9">
-        <v>1.022721838241662</v>
+        <v>0.9797998766545264</v>
       </c>
       <c r="E9">
-        <v>1.021778250528735</v>
+        <v>0.9796900380968829</v>
       </c>
       <c r="F9">
-        <v>1.017976580469046</v>
+        <v>0.9380055496329764</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02910226330172</v>
+        <v>1.03605880129984</v>
       </c>
       <c r="J9">
-        <v>1.02668120965962</v>
+        <v>0.9949929558246058</v>
       </c>
       <c r="K9">
-        <v>1.025928348325299</v>
+        <v>0.993229415532245</v>
       </c>
       <c r="L9">
-        <v>1.024987930290397</v>
+        <v>0.9931214554930839</v>
       </c>
       <c r="M9">
-        <v>1.021199096121808</v>
+        <v>0.9521914594110441</v>
       </c>
       <c r="N9">
-        <v>1.012904421137528</v>
+        <v>1.002105632816862</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018840906430333</v>
+        <v>0.9570192514857092</v>
       </c>
       <c r="D10">
-        <v>1.021019208352412</v>
+        <v>0.9703939025464025</v>
       </c>
       <c r="E10">
-        <v>1.020120631558</v>
+        <v>0.9705957704391233</v>
       </c>
       <c r="F10">
-        <v>1.015038135576485</v>
+        <v>0.9214941715175062</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028711993065817</v>
+        <v>1.032641738945036</v>
       </c>
       <c r="J10">
-        <v>1.025293460049166</v>
+        <v>0.9870484017276583</v>
       </c>
       <c r="K10">
-        <v>1.024519199521324</v>
+        <v>0.9853191016709201</v>
       </c>
       <c r="L10">
-        <v>1.023623941454287</v>
+        <v>0.9855170282276616</v>
       </c>
       <c r="M10">
-        <v>1.018560339152245</v>
+        <v>0.9374419419917207</v>
       </c>
       <c r="N10">
-        <v>1.012440054604932</v>
+        <v>0.9994287282910339</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017996891673836</v>
+        <v>0.9519167124228239</v>
       </c>
       <c r="D11">
-        <v>1.020280321616956</v>
+        <v>0.9661369456570971</v>
       </c>
       <c r="E11">
-        <v>1.019401446711802</v>
+        <v>0.9664826763683917</v>
       </c>
       <c r="F11">
-        <v>1.0137628181422</v>
+        <v>0.9139547479990927</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028539605060288</v>
+        <v>1.031068691742226</v>
       </c>
       <c r="J11">
-        <v>1.024689846586931</v>
+        <v>0.9834362571962951</v>
       </c>
       <c r="K11">
-        <v>1.023906695924337</v>
+        <v>0.9817270287266924</v>
       </c>
       <c r="L11">
-        <v>1.023031194638647</v>
+        <v>0.9820656253369046</v>
       </c>
       <c r="M11">
-        <v>1.017414364801076</v>
+        <v>0.9307047785719673</v>
       </c>
       <c r="N11">
-        <v>1.012237967560814</v>
+        <v>0.9982117314143212</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017683046499482</v>
+        <v>0.9499831355973297</v>
       </c>
       <c r="D12">
-        <v>1.020005615320948</v>
+        <v>0.9645253926282658</v>
       </c>
       <c r="E12">
-        <v>1.019134090733851</v>
+        <v>0.9649260325575932</v>
       </c>
       <c r="F12">
-        <v>1.013288648566199</v>
+        <v>0.911088800928193</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028475060337174</v>
+        <v>1.030469245034831</v>
       </c>
       <c r="J12">
-        <v>1.024465225897287</v>
+        <v>0.9820662345183652</v>
       </c>
       <c r="K12">
-        <v>1.023678829699267</v>
+        <v>0.9803653196570858</v>
       </c>
       <c r="L12">
-        <v>1.022810697614525</v>
+        <v>0.9807575230712647</v>
       </c>
       <c r="M12">
-        <v>1.01698817709538</v>
+        <v>0.9281436027196979</v>
       </c>
       <c r="N12">
-        <v>1.012162749657158</v>
+        <v>0.9977501789739721</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017750382869942</v>
+        <v>0.9503996864634356</v>
       </c>
       <c r="D13">
-        <v>1.020064552186347</v>
+        <v>0.964872495805143</v>
       </c>
       <c r="E13">
-        <v>1.019191449470488</v>
+        <v>0.9652612884846862</v>
       </c>
       <c r="F13">
-        <v>1.01339038062758</v>
+        <v>0.9117066421589181</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028488928600426</v>
+        <v>1.030598533391199</v>
       </c>
       <c r="J13">
-        <v>1.024513426509368</v>
+        <v>0.9823614335648713</v>
       </c>
       <c r="K13">
-        <v>1.023727723922842</v>
+        <v>0.980658695317731</v>
       </c>
       <c r="L13">
-        <v>1.022858009727982</v>
+        <v>0.9810393364000052</v>
       </c>
       <c r="M13">
-        <v>1.017079619655879</v>
+        <v>0.9286957473103011</v>
       </c>
       <c r="N13">
-        <v>1.012178891136602</v>
+        <v>0.9978496279949416</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017970956118453</v>
+        <v>0.9517576845595993</v>
       </c>
       <c r="D14">
-        <v>1.020257619455287</v>
+        <v>0.9660043697121032</v>
       </c>
       <c r="E14">
-        <v>1.019379351471764</v>
+        <v>0.9663546083420805</v>
       </c>
       <c r="F14">
-        <v>1.013723632614848</v>
+        <v>0.9137192274235694</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028534280230079</v>
+        <v>1.031019457270428</v>
       </c>
       <c r="J14">
-        <v>1.024671287798816</v>
+        <v>0.9833236037235268</v>
       </c>
       <c r="K14">
-        <v>1.023887867702379</v>
+        <v>0.9816150445058046</v>
       </c>
       <c r="L14">
-        <v>1.023012974930248</v>
+        <v>0.9819580438508856</v>
       </c>
       <c r="M14">
-        <v>1.017379146722815</v>
+        <v>0.93049430670941</v>
       </c>
       <c r="N14">
-        <v>1.012231753171459</v>
+        <v>0.9981737783642693</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018106813257575</v>
+        <v>0.9525892104619756</v>
       </c>
       <c r="D15">
-        <v>1.020376541180415</v>
+        <v>0.9666976492067382</v>
       </c>
       <c r="E15">
-        <v>1.01949509497631</v>
+        <v>0.9670243329212056</v>
       </c>
       <c r="F15">
-        <v>1.013928898726074</v>
+        <v>0.9149503467103125</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028562154954595</v>
+        <v>1.031276759347293</v>
       </c>
       <c r="J15">
-        <v>1.024768496640064</v>
+        <v>0.9839125974218231</v>
       </c>
       <c r="K15">
-        <v>1.023986490374308</v>
+        <v>0.9822005677215251</v>
       </c>
       <c r="L15">
-        <v>1.023108410979773</v>
+        <v>0.9825205583190906</v>
       </c>
       <c r="M15">
-        <v>1.017563625646734</v>
+        <v>0.9315944839174758</v>
       </c>
       <c r="N15">
-        <v>1.012264302792218</v>
+        <v>0.9983722122805441</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018896873519813</v>
+        <v>0.9573527227508959</v>
       </c>
       <c r="D16">
-        <v>1.021068210925118</v>
+        <v>0.9706723244841147</v>
       </c>
       <c r="E16">
-        <v>1.020168331072939</v>
+        <v>0.9708648431843985</v>
       </c>
       <c r="F16">
-        <v>1.015122710608704</v>
+        <v>0.9219857605535063</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02872336215611</v>
+        <v>1.03274407718732</v>
       </c>
       <c r="J16">
-        <v>1.025333462407118</v>
+        <v>0.9872843003171876</v>
       </c>
       <c r="K16">
-        <v>1.024559799823119</v>
+        <v>0.9855537844056054</v>
       </c>
       <c r="L16">
-        <v>1.023663234847182</v>
+        <v>0.9857425582293747</v>
       </c>
       <c r="M16">
-        <v>1.018636321331301</v>
+        <v>0.9378811871860981</v>
       </c>
       <c r="N16">
-        <v>1.012453444976619</v>
+        <v>0.9995082104087457</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019391857735051</v>
+        <v>0.9602763894902858</v>
       </c>
       <c r="D17">
-        <v>1.021501635394094</v>
+        <v>0.9731144731133377</v>
       </c>
       <c r="E17">
-        <v>1.020590249554736</v>
+        <v>0.9732253041902289</v>
       </c>
       <c r="F17">
-        <v>1.015870755503977</v>
+        <v>0.9262899791995558</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02882357222444</v>
+        <v>1.033638736306644</v>
       </c>
       <c r="J17">
-        <v>1.025687121921665</v>
+        <v>0.9893515788572474</v>
       </c>
       <c r="K17">
-        <v>1.024918793868426</v>
+        <v>0.9876109172651097</v>
       </c>
       <c r="L17">
-        <v>1.024010687705817</v>
+        <v>0.9877196625754718</v>
       </c>
       <c r="M17">
-        <v>1.019308281016089</v>
+        <v>0.941726860804397</v>
       </c>
       <c r="N17">
-        <v>1.012571816505837</v>
+        <v>1.000204759774662</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019680359635778</v>
+        <v>0.9619595940393186</v>
       </c>
       <c r="D18">
-        <v>1.02175428696971</v>
+        <v>0.9745213723652882</v>
       </c>
       <c r="E18">
-        <v>1.020836210302142</v>
+        <v>0.9745854041532712</v>
       </c>
       <c r="F18">
-        <v>1.016306793789644</v>
+        <v>0.9287634589179684</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028881695272093</v>
+        <v>1.034151643273516</v>
       </c>
       <c r="J18">
-        <v>1.025893144510108</v>
+        <v>0.9905409656021902</v>
       </c>
       <c r="K18">
-        <v>1.025127964250335</v>
+        <v>0.988794886996891</v>
       </c>
       <c r="L18">
-        <v>1.024213145801276</v>
+        <v>0.9888577370018702</v>
       </c>
       <c r="M18">
-        <v>1.019699899079208</v>
+        <v>0.9439366112984399</v>
       </c>
       <c r="N18">
-        <v>1.012640762955883</v>
+        <v>1.000605521153502</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019778695224473</v>
+        <v>0.962529867456641</v>
       </c>
       <c r="D19">
-        <v>1.02184040804759</v>
+        <v>0.9749981844045429</v>
       </c>
       <c r="E19">
-        <v>1.020920053434108</v>
+        <v>0.9750463988215023</v>
       </c>
       <c r="F19">
-        <v>1.016455423961593</v>
+        <v>0.9296007506462725</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028901458177205</v>
+        <v>1.034325047345684</v>
       </c>
       <c r="J19">
-        <v>1.025963348759171</v>
+        <v>0.9909437992370765</v>
       </c>
       <c r="K19">
-        <v>1.025199247958927</v>
+        <v>0.9891959565714399</v>
       </c>
       <c r="L19">
-        <v>1.024282144091747</v>
+        <v>0.9892432870568502</v>
       </c>
       <c r="M19">
-        <v>1.019833376094849</v>
+        <v>0.9446845874616071</v>
       </c>
       <c r="N19">
-        <v>1.012664255395057</v>
+        <v>1.000741256184979</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01933877279916</v>
+        <v>0.9599650189766266</v>
       </c>
       <c r="D20">
-        <v>1.021455149387311</v>
+        <v>0.9728542885686364</v>
       </c>
       <c r="E20">
-        <v>1.020544995916968</v>
+        <v>0.9729737953513672</v>
       </c>
       <c r="F20">
-        <v>1.015790526827016</v>
+        <v>0.9258320607771843</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028812854549187</v>
+        <v>1.033543679301469</v>
       </c>
       <c r="J20">
-        <v>1.025649204637655</v>
+        <v>0.9891314946426566</v>
       </c>
       <c r="K20">
-        <v>1.024880300488655</v>
+        <v>0.9873918693177358</v>
       </c>
       <c r="L20">
-        <v>1.023973430567931</v>
+        <v>0.9875091190244015</v>
       </c>
       <c r="M20">
-        <v>1.019236219790713</v>
+        <v>0.9413177481207151</v>
       </c>
       <c r="N20">
-        <v>1.012559126474052</v>
+        <v>1.000130603484074</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017906012247366</v>
+        <v>0.9513588743074076</v>
       </c>
       <c r="D21">
-        <v>1.02020077292186</v>
+        <v>0.9656719216838578</v>
       </c>
       <c r="E21">
-        <v>1.019324025090514</v>
+        <v>0.9660334716820911</v>
       </c>
       <c r="F21">
-        <v>1.013625511039302</v>
+        <v>0.9131284396044865</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028520939455896</v>
+        <v>1.030895933523469</v>
       </c>
       <c r="J21">
-        <v>1.024624812989645</v>
+        <v>0.983041071656427</v>
       </c>
       <c r="K21">
-        <v>1.023840719191246</v>
+        <v>0.9813342022579984</v>
       </c>
       <c r="L21">
-        <v>1.022967350532685</v>
+        <v>0.9816882476697275</v>
       </c>
       <c r="M21">
-        <v>1.017290957990563</v>
+        <v>0.9299663494161443</v>
       </c>
       <c r="N21">
-        <v>1.012216190877266</v>
+        <v>0.998078593661771</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017003205408162</v>
+        <v>0.9457243708066077</v>
       </c>
       <c r="D22">
-        <v>1.019410642731504</v>
+        <v>0.9609789834164026</v>
       </c>
       <c r="E22">
-        <v>1.018555084579662</v>
+        <v>0.9615013167999336</v>
       </c>
       <c r="F22">
-        <v>1.012261610575769</v>
+        <v>0.9047580776422757</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028334436953043</v>
+        <v>1.029142881541168</v>
       </c>
       <c r="J22">
-        <v>1.02397835247459</v>
+        <v>0.9790464846760923</v>
       </c>
       <c r="K22">
-        <v>1.023185036232645</v>
+        <v>0.9773652191284035</v>
       </c>
       <c r="L22">
-        <v>1.022332908631289</v>
+        <v>0.9778760651327271</v>
       </c>
       <c r="M22">
-        <v>1.016064868271814</v>
+        <v>0.9224859361991797</v>
       </c>
       <c r="N22">
-        <v>1.011999683167334</v>
+        <v>0.9967329240297952</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01748198966302</v>
+        <v>0.9487337900681475</v>
       </c>
       <c r="D23">
-        <v>1.019829645181557</v>
+        <v>0.9634845827100985</v>
       </c>
       <c r="E23">
-        <v>1.018962836216676</v>
+        <v>0.963920815245097</v>
       </c>
       <c r="F23">
-        <v>1.012984898563937</v>
+        <v>0.9092342934560508</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028433586933674</v>
+        <v>1.030080992543784</v>
       </c>
       <c r="J23">
-        <v>1.024321281103696</v>
+        <v>0.9811806775916485</v>
       </c>
       <c r="K23">
-        <v>1.023532822709684</v>
+        <v>0.9794853374807759</v>
       </c>
       <c r="L23">
-        <v>1.022669417906964</v>
+        <v>0.9799122646034484</v>
       </c>
       <c r="M23">
-        <v>1.016715133454914</v>
+        <v>0.926486274567383</v>
       </c>
       <c r="N23">
-        <v>1.012114542929812</v>
+        <v>0.9974518516588365</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019362760257442</v>
+        <v>0.9601057820160314</v>
       </c>
       <c r="D24">
-        <v>1.021476154899363</v>
+        <v>0.9729719088482984</v>
       </c>
       <c r="E24">
-        <v>1.02056544451145</v>
+        <v>0.9730874928433744</v>
       </c>
       <c r="F24">
-        <v>1.015826779587472</v>
+        <v>0.9260390885387701</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028817698418006</v>
+        <v>1.033586658992728</v>
       </c>
       <c r="J24">
-        <v>1.025666338632306</v>
+        <v>0.9892309917930991</v>
       </c>
       <c r="K24">
-        <v>1.024897694684196</v>
+        <v>0.9874908966812359</v>
       </c>
       <c r="L24">
-        <v>1.023990266098775</v>
+        <v>0.9876043012035008</v>
       </c>
       <c r="M24">
-        <v>1.019268782158249</v>
+        <v>0.9415027111989971</v>
       </c>
       <c r="N24">
-        <v>1.012564860854818</v>
+        <v>1.000164128531095</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0215369169012</v>
+        <v>0.9724429696895133</v>
       </c>
       <c r="D25">
-        <v>1.023380672994001</v>
+        <v>0.9832989327240825</v>
       </c>
       <c r="E25">
-        <v>1.022419817328633</v>
+        <v>0.9830753515989337</v>
       </c>
       <c r="F25">
-        <v>1.019113554465251</v>
+        <v>0.9441006948680973</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029250585069787</v>
+        <v>1.037307095926626</v>
       </c>
       <c r="J25">
-        <v>1.027216980062609</v>
+        <v>0.9979347089375511</v>
       </c>
       <c r="K25">
-        <v>1.026472751124795</v>
+        <v>0.9961621647904477</v>
       </c>
       <c r="L25">
-        <v>1.025514999109351</v>
+        <v>0.995942208559543</v>
       </c>
       <c r="M25">
-        <v>1.022219464762839</v>
+        <v>0.9576335373934235</v>
       </c>
       <c r="N25">
-        <v>1.013083603989592</v>
+        <v>1.003096847955092</v>
       </c>
     </row>
   </sheetData>
